--- a/CesiumBimGisApi/obj/Release/net5.0/PubTmp/Out/temp/component.xlsx
+++ b/CesiumBimGisApi/obj/Release/net5.0/PubTmp/Out/temp/component.xlsx
@@ -14,33 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>ComponentId(构件id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComponentName(构件名称)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ModelId(构件所属的模型id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status(施工状态)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CompletedTime(完成时间)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParentId(父节点Id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComponentTypeId(构件类型编号)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>{"firstpro":"p1","secondpro":"p2"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComponentId(构件id string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComponentName(构件名称 string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModelId(构件所属的模型id int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Status(施工状态 int) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CompletedTime(完成时间 date) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentId(父节点Id string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComponentTypeId(构件类型编号 int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdditionalProperties（构件额外属性，json字符串 string）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -390,67 +403,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>991</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" s="1">
+        <v>44457.759467592594</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
